--- a/manual/display.xlsx
+++ b/manual/display.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>32型</t>
     <rPh sb="2" eb="3">
@@ -28,20 +28,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面Width</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面Height</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>解像度（Winodowのサイズ）</t>
     <rPh sb="0" eb="3">
       <t>カイゾウド</t>
@@ -49,15 +35,66 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オブジェクトのサイズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1280*720（HD）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1980*1080（Full HD）</t>
+    <t>1920*1080（Full HD）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iiyama X3291HS-B1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11型</t>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mac Book Air Mid 2013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1366*768（FWXGA）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面Width（cm）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面Height（cm）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字のサイズ</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1dotのサイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字のサイズ</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1dotのサイズ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -383,49 +420,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.125" customWidth="1"/>
+    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" customWidth="1"/>
+    <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="E2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>70.709999999999994</v>
+      </c>
+      <c r="D4">
+        <v>39.83</v>
+      </c>
+      <c r="E4">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="I4">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>0</v>
+      <c r="C5">
+        <v>24.31</v>
+      </c>
+      <c r="D5">
+        <v>13.69</v>
+      </c>
+      <c r="E5">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.78E-2</v>
       </c>
     </row>
   </sheetData>

--- a/manual/display.xlsx
+++ b/manual/display.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>32型</t>
     <rPh sb="2" eb="3">
@@ -28,21 +28,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>解像度（Winodowのサイズ）</t>
-    <rPh sb="0" eb="3">
-      <t>カイゾウド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1280*720（HD）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1920*1080（Full HD）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>iiyama X3291HS-B1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -58,43 +43,89 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1366*768（FWXGA）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面Width（cm）</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面Height（cm）</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字のサイズ</t>
+    <t>1dotのサイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21.5型</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LG 22EA63</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字のサイズ（cm）</t>
     <rPh sb="0" eb="2">
       <t>モジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1dotのサイズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字のサイズ</t>
+    <t>フォントサイズ（pt）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大解像度</t>
     <rPh sb="0" eb="2">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1dotのサイズ</t>
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カイゾウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Height（dot）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Full HD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FWXGA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Full HD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Width（dot）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Width（cm）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Height（cm）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品名</t>
+    <rPh sb="0" eb="3">
+      <t>セイヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字間隔（cm）</t>
+    <rPh sb="0" eb="4">
+      <t>モジカンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドットサイズ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -118,15 +149,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,12 +171,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -420,106 +474,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.125" customWidth="1"/>
-    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.375" customWidth="1"/>
-    <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="21.375" customWidth="1"/>
+    <col min="14" max="14" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="E1" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>70.709999999999994</v>
+      </c>
+      <c r="D2" s="1">
+        <v>39.83</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1920</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1080</v>
+      </c>
+      <c r="H2" s="1">
+        <f>C2/F2</f>
+        <v>3.6828124999999996E-2</v>
+      </c>
+      <c r="I2" s="2">
+        <f>J2*H2</f>
+        <v>2.8971660324969144</v>
+      </c>
+      <c r="J2" s="1">
+        <f>$I$3/$H$3</f>
+        <v>78.667215137803367</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>24.31</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13.69</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
+      <c r="F3" s="1">
+        <v>1366</v>
+      </c>
+      <c r="G3" s="1">
+        <v>768</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H4" si="0">C3/F3</f>
+        <v>1.7796486090775988E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="J3" s="1">
+        <f>$I$3/$H$3</f>
+        <v>78.667215137803367</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>70.709999999999994</v>
-      </c>
-      <c r="D4">
-        <v>39.83</v>
-      </c>
-      <c r="E4">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="I4">
-        <v>3.6799999999999999E-2</v>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>47.89</v>
+      </c>
+      <c r="D4" s="1">
+        <v>27.04</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1920</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1080</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4942708333333334E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <f>J4*H4</f>
+        <v>1.9621734025778144</v>
+      </c>
+      <c r="J4" s="1">
+        <f>$I$3/$H$3</f>
+        <v>78.667215137803367</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>24.31</v>
-      </c>
-      <c r="D5">
-        <v>13.69</v>
-      </c>
-      <c r="E5">
-        <v>1.78E-2</v>
-      </c>
-      <c r="G5">
-        <v>1.78E-2</v>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <f>I7/H3</f>
+        <v>56.190867955573843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <f>I8/H3</f>
+        <v>112.38173591114769</v>
       </c>
     </row>
   </sheetData>

--- a/manual/display.xlsx
+++ b/manual/display.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>32型</t>
     <rPh sb="2" eb="3">
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>ドットサイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORD_FONT_SIZE_RATIO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -190,10 +194,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -474,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -492,13 +497,13 @@
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.25" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="21.375" customWidth="1"/>
     <col min="14" max="14" width="21.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -529,8 +534,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -558,14 +566,17 @@
       </c>
       <c r="I2" s="2">
         <f>J2*H2</f>
-        <v>2.8971660324969144</v>
+        <v>2.6516249999999997</v>
       </c>
       <c r="J2" s="1">
-        <f>$I$3/$H$3</f>
-        <v>78.667215137803367</v>
+        <f>F2 * (1/16) * K2</f>
+        <v>72</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -592,14 +603,18 @@
         <v>1.7796486090775988E-2</v>
       </c>
       <c r="I3" s="2">
-        <v>1.4</v>
+        <f>J3*H3</f>
+        <v>0.91162500000000002</v>
       </c>
       <c r="J3" s="1">
-        <f>$I$3/$H$3</f>
-        <v>78.667215137803367</v>
+        <f>F3 * (1/16) * K3</f>
+        <v>51.225000000000001</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -627,36 +642,39 @@
       </c>
       <c r="I4" s="2">
         <f>J4*H4</f>
-        <v>1.9621734025778144</v>
+        <v>1.7958750000000001</v>
       </c>
       <c r="J4" s="1">
-        <f>$I$3/$H$3</f>
-        <v>78.667215137803367</v>
+        <f>F4 * (1/16) * K4</f>
+        <v>72</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I6" s="1" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I7" s="1">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="1">
-        <f>I7/H3</f>
+      <c r="K7" s="1">
+        <f>J7/H3</f>
         <v>56.190867955573843</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I8" s="1">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J8" s="1">
         <v>2</v>
       </c>
-      <c r="J8" s="1">
-        <f>I8/H3</f>
+      <c r="K8" s="1">
+        <f>J8/H3</f>
         <v>112.38173591114769</v>
       </c>
     </row>
